--- a/xlsx/越南语维基百科_intext.xlsx
+++ b/xlsx/越南语维基百科_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="421">
   <si>
     <t>越南语维基百科</t>
   </si>
@@ -29,7 +29,7 @@
     <t>网络百科全书</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_越南语维基百科</t>
+    <t>政策_政策_维基百科_越南语维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AF%AD</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%96%83</t>
   </si>
   <si>
-    <t>漢喃</t>
+    <t>汉喃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
@@ -65,25 +65,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>越南語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%87%9F%E5%88%A9%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>非營利組織</t>
+    <t>非营利组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基媒體基金會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E7%9B%AE</t>
   </si>
   <si>
-    <t>條目</t>
+    <t>条目</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E6%AD%A2%E7%BD%91%E7%BB%9C%E7%9B%97%E7%89%88%E6%B3%95%E6%A1%88</t>
@@ -95,9 +89,6 @@
     <t>https://vi.wikipedia.org/wiki/Trang_Ch%C3%ADnh</t>
   </si>
   <si>
-    <t>越南語維基百科</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Wikipedia_editions</t>
   </si>
   <si>
@@ -113,7 +104,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>英語維基百科</t>
+    <t>英语维基百科</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/</t>
@@ -125,7 +116,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BF%E9%9C%A7%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>宿霧語維基百科</t>
+    <t>宿雾语维基百科</t>
   </si>
   <si>
     <t>https://ceb.wikipedia.org/wiki/</t>
@@ -137,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>瑞典語維基百科</t>
+    <t>瑞典语维基百科</t>
   </si>
   <si>
     <t>https://sv.wikipedia.org/wiki/</t>
@@ -149,7 +140,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>德語維基百科</t>
+    <t>德语维基百科</t>
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/</t>
@@ -161,7 +152,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>法語維基百科</t>
+    <t>法语维基百科</t>
   </si>
   <si>
     <t>https://fr.wikipedia.org/wiki/</t>
@@ -173,7 +164,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>荷蘭語維基百科</t>
+    <t>荷兰语维基百科</t>
   </si>
   <si>
     <t>https://nl.wikipedia.org/wiki/</t>
@@ -185,7 +176,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>俄語維基百科</t>
+    <t>俄语维基百科</t>
   </si>
   <si>
     <t>https://ru.wikipedia.org/wiki/</t>
@@ -197,7 +188,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>意大利語維基百科</t>
+    <t>意大利语维基百科</t>
   </si>
   <si>
     <t>https://it.wikipedia.org/wiki/</t>
@@ -221,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%91%9E%E7%93%A6%E7%91%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>瓦瑞瓦瑞語維基百科</t>
+    <t>瓦瑞瓦瑞语维基百科</t>
   </si>
   <si>
     <t>https://war.wikipedia.org/wiki/</t>
@@ -233,7 +224,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>波蘭語維基百科</t>
+    <t>波兰语维基百科</t>
   </si>
   <si>
     <t>https://pl.wikipedia.org/wiki/</t>
@@ -251,7 +242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>日語維基百科</t>
+    <t>日语维基百科</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/</t>
@@ -275,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>烏克蘭語維基百科</t>
+    <t>乌克兰语维基百科</t>
   </si>
   <si>
     <t>https://uk.wikipedia.org/wiki/</t>
@@ -287,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>波斯語維基百科</t>
+    <t>波斯语维基百科</t>
   </si>
   <si>
     <t>https://fa.wikipedia.org/wiki/</t>
@@ -299,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>加泰羅尼亞語維基百科</t>
+    <t>加泰罗尼亚语维基百科</t>
   </si>
   <si>
     <t>https://ca.wikipedia.org/wiki/</t>
@@ -323,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>挪威語維基百科</t>
+    <t>挪威语维基百科</t>
   </si>
   <si>
     <t>https://no.wikipedia.org/wiki/</t>
@@ -335,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E-%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>塞爾維亞-克羅埃西亞語維基百科</t>
+    <t>塞尔维亚-克罗埃西亚语维基百科</t>
   </si>
   <si>
     <t>https://sh.wikipedia.org/wiki/</t>
@@ -359,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>匈牙利語維基百科</t>
+    <t>匈牙利语维基百科</t>
   </si>
   <si>
     <t>https://hu.wikipedia.org/wiki/</t>
@@ -371,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>印尼語維基百科</t>
+    <t>印尼语维基百科</t>
   </si>
   <si>
     <t>https://id.wikipedia.org/wiki/</t>
@@ -383,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>韓語維基百科</t>
+    <t>韩语维基百科</t>
   </si>
   <si>
     <t>https://ko.wikipedia.org/wiki/</t>
@@ -395,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>捷克語維基百科</t>
+    <t>捷克语维基百科</t>
   </si>
   <si>
     <t>https://cs.wikipedia.org/wiki/</t>
@@ -419,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>塞爾維亞語維基百科</t>
+    <t>塞尔维亚语维基百科</t>
   </si>
   <si>
     <t>https://sr.wikipedia.org/wiki/</t>
@@ -431,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>馬來語維基百科</t>
+    <t>马来语维基百科</t>
   </si>
   <si>
     <t>https://ms.wikipedia.org/wiki/</t>
@@ -443,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>土耳其語維基百科</t>
+    <t>土耳其语维基百科</t>
   </si>
   <si>
     <t>https://tr.wikipedia.org/wiki/</t>
@@ -455,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%96%AF%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>巴斯克語維基百科</t>
+    <t>巴斯克语维基百科</t>
   </si>
   <si>
     <t>https://eu.wikipedia.org/wiki/</t>
@@ -467,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>世界語維基百科</t>
+    <t>世界语维基百科</t>
   </si>
   <si>
     <t>https://eo.wikipedia.org/wiki/</t>
@@ -479,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>保加利亞語維基百科</t>
+    <t>保加利亚语维基百科</t>
   </si>
   <si>
     <t>https://bg.wikipedia.org/wiki/</t>
@@ -491,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>亞美尼亞語維基百科</t>
+    <t>亚美尼亚语维基百科</t>
   </si>
   <si>
     <t>https://hy.wikipedia.org/wiki/</t>
@@ -503,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>丹麥語維基百科</t>
+    <t>丹麦语维基百科</t>
   </si>
   <si>
     <t>https://da.wikipedia.org/wiki/</t>
@@ -515,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8D%97%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>閩南語維基百科</t>
+    <t>闽南语维基百科</t>
   </si>
   <si>
     <t>https://zh-min-nan.wikipedia.org/wiki/</t>
@@ -527,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>斯洛伐克語維基百科</t>
+    <t>斯洛伐克语维基百科</t>
   </si>
   <si>
     <t>https://sk.wikipedia.org/wiki/</t>
@@ -557,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E4%BE%86%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>希伯來語維基百科</t>
+    <t>希伯来语维基百科</t>
   </si>
   <si>
     <t>https://he.wikipedia.org/wiki/</t>
@@ -569,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>立陶宛語維基百科</t>
+    <t>立陶宛语维基百科</t>
   </si>
   <si>
     <t>https://lt.wikipedia.org/wiki/</t>
@@ -581,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>克羅埃西亞語維基百科</t>
+    <t>克罗埃西亚语维基百科</t>
   </si>
   <si>
     <t>https://hr.wikipedia.org/wiki/</t>
@@ -593,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>愛沙尼亞語維基百科</t>
+    <t>爱沙尼亚语维基百科</t>
   </si>
   <si>
     <t>https://et.wikipedia.org/wiki/</t>
@@ -617,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>斯洛文尼亞語維基百科</t>
+    <t>斯洛文尼亚语维基百科</t>
   </si>
   <si>
     <t>https://sl.wikipedia.org/wiki/</t>
@@ -629,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>白俄羅斯語維基百科</t>
+    <t>白俄罗斯语维基百科</t>
   </si>
   <si>
     <t>https://be.wikipedia.org/wiki/</t>
@@ -647,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>希臘語維基百科</t>
+    <t>希腊语维基百科</t>
   </si>
   <si>
     <t>https://el.wikipedia.org/wiki/</t>
@@ -659,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%8C%AA%E5%A8%81%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>新挪威語維基百科</t>
+    <t>新挪威语维基百科</t>
   </si>
   <si>
     <t>https://nn.wikipedia.org/wiki/</t>
@@ -683,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>阿塞拜疆語維基百科</t>
+    <t>阿塞拜疆语维基百科</t>
   </si>
   <si>
     <t>https://az.wikipedia.org/wiki/</t>
@@ -695,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>烏茲別克語維基百科</t>
+    <t>乌兹别克语维基百科</t>
   </si>
   <si>
     <t>https://uz.wikipedia.org/wiki/</t>
@@ -707,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>拉丁語維基百科</t>
+    <t>拉丁语维基百科</t>
   </si>
   <si>
     <t>https://la.wikipedia.org/wiki/</t>
@@ -731,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>印地語維基百科</t>
+    <t>印地语维基百科</t>
   </si>
   <si>
     <t>https://hi.wikipedia.org/wiki/</t>
@@ -743,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>泰語維基百科</t>
+    <t>泰语维基百科</t>
   </si>
   <si>
     <t>https://th.wikipedia.org/wiki/</t>
@@ -767,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E7%B1%B3%E7%88%BE%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>泰米爾語維基百科</t>
+    <t>泰米尔语维基百科</t>
   </si>
   <si>
     <t>https://ta.wikipedia.org/wiki/</t>
@@ -785,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>馬其頓語維基百科</t>
+    <t>马其顿语维基百科</t>
   </si>
   <si>
     <t>https://mk.wikipedia.org/wiki/</t>
@@ -839,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8B%92%E6%9B%BC%E5%B0%BC%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>阿勒曼尼語維基百科</t>
+    <t>阿勒曼尼语维基百科</t>
   </si>
   <si>
     <t>https://als.wikipedia.org/wiki/</t>
@@ -893,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>孟加拉語維基百科</t>
+    <t>孟加拉语维基百科</t>
   </si>
   <si>
     <t>https://bn.wikipedia.org/wiki/</t>
@@ -917,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>波斯尼亞語維基百科</t>
+    <t>波斯尼亚语维基百科</t>
   </si>
   <si>
     <t>https://bs.wikipedia.org/wiki/</t>
@@ -989,7 +980,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A4%9A%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>伊多語維基百科</t>
+    <t>伊多语维基百科</t>
   </si>
   <si>
     <t>https://io.wikipedia.org/wiki/</t>
@@ -1001,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>冰島語維基百科</t>
+    <t>冰岛语维基百科</t>
   </si>
   <si>
     <t>https://is.wikipedia.org/wiki/</t>
@@ -1037,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>盧森堡語維基百科</t>
+    <t>卢森堡语维基百科</t>
   </si>
   <si>
     <t>https://lb.wikipedia.org/wiki/</t>
@@ -1145,7 +1136,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>阿爾巴尼亞語維基百科</t>
+    <t>阿尔巴尼亚语维基百科</t>
   </si>
   <si>
     <t>https://sq.wikipedia.org/wiki/</t>
@@ -1163,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B8%8C%E9%87%8C%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>斯瓦希里語維基百科</t>
+    <t>斯瓦希里语维基百科</t>
   </si>
   <si>
     <t>https://sw.wikipedia.org/wiki/</t>
@@ -1175,7 +1166,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>塔吉克語維基百科</t>
+    <t>塔吉克语维基百科</t>
   </si>
   <si>
     <t>https://tg.wikipedia.org/wiki/</t>
@@ -1187,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%A1%94%E7%88%BE%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>塔塔爾語維基百科</t>
+    <t>塔塔尔语维基百科</t>
   </si>
   <si>
     <t>https://tt.wikipedia.org/wiki/</t>
@@ -1211,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E6%96%87%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>粵文維基百科</t>
+    <t>粤文维基百科</t>
   </si>
   <si>
     <t>https://zh-yue.wikipedia.org/wiki/</t>
@@ -1860,7 +1851,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
         <v>14</v>
@@ -1886,10 +1877,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1915,10 +1906,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1944,10 +1935,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
         <v>26</v>
@@ -1973,10 +1964,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -2002,10 +1993,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>8</v>
@@ -2031,10 +2022,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
@@ -2060,10 +2051,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G15" t="n">
         <v>16</v>
@@ -2089,10 +2080,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -2118,10 +2109,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G17" t="n">
         <v>46</v>
@@ -2147,10 +2138,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -2176,10 +2167,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2205,10 +2196,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2234,10 +2225,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2263,10 +2254,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
@@ -2292,10 +2283,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G23" t="n">
         <v>23</v>
@@ -2321,10 +2312,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2350,10 +2341,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2379,10 +2370,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2408,10 +2399,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G27" t="n">
         <v>4</v>
@@ -2437,10 +2428,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2466,10 +2457,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G29" t="n">
         <v>20</v>
@@ -2495,10 +2486,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2524,10 +2515,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G31" t="n">
         <v>56</v>
@@ -2553,10 +2544,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2582,10 +2573,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G33" t="n">
         <v>56</v>
@@ -2611,10 +2602,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2640,10 +2631,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2669,10 +2660,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2698,10 +2689,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G37" t="n">
         <v>26</v>
@@ -2727,10 +2718,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G38" t="n">
         <v>15</v>
@@ -2756,10 +2747,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2785,10 +2776,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2814,10 +2805,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2843,10 +2834,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G42" t="n">
         <v>13</v>
@@ -2901,10 +2892,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2930,10 +2921,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2959,10 +2950,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2988,10 +2979,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G47" t="n">
         <v>19</v>
@@ -3017,10 +3008,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3046,10 +3037,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G49" t="n">
         <v>10</v>
@@ -3075,10 +3066,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3104,10 +3095,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G51" t="n">
         <v>34</v>
@@ -3133,10 +3124,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3162,10 +3153,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G53" t="n">
         <v>14</v>
@@ -3191,10 +3182,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3220,10 +3211,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G55" t="n">
         <v>10</v>
@@ -3249,10 +3240,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3278,10 +3269,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G57" t="n">
         <v>7</v>
@@ -3307,10 +3298,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3336,10 +3327,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3365,10 +3356,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3394,10 +3385,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G61" t="n">
         <v>7</v>
@@ -3423,10 +3414,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3452,10 +3443,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3481,10 +3472,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3510,10 +3501,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -3539,10 +3530,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3568,10 +3559,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G67" t="n">
         <v>13</v>
@@ -3597,10 +3588,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3626,10 +3617,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -3655,10 +3646,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3684,10 +3675,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G71" t="n">
         <v>5</v>
@@ -3713,10 +3704,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3742,10 +3733,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G73" t="n">
         <v>34</v>
@@ -3771,10 +3762,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3800,10 +3791,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3829,10 +3820,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3858,10 +3849,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3887,10 +3878,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3916,10 +3907,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3945,10 +3936,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3974,10 +3965,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4003,10 +3994,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4032,10 +4023,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4061,10 +4052,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4090,10 +4081,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4119,10 +4110,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4148,10 +4139,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G87" t="n">
         <v>8</v>
@@ -4177,10 +4168,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G88" t="n">
         <v>6</v>
@@ -4206,10 +4197,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4235,10 +4226,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4264,10 +4255,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4293,10 +4284,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G92" t="n">
         <v>9</v>
@@ -4322,10 +4313,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4351,10 +4342,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G94" t="n">
         <v>9</v>
@@ -4380,10 +4371,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4409,10 +4400,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4438,10 +4429,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4467,10 +4458,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
         <v>32</v>
@@ -4496,10 +4487,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4525,10 +4516,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>24</v>
@@ -4554,10 +4545,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4583,10 +4574,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4612,10 +4603,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4641,10 +4632,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>5</v>
@@ -4670,10 +4661,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>6</v>
@@ -4699,10 +4690,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4728,10 +4719,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>11</v>
@@ -4757,10 +4748,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4786,10 +4777,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -4815,10 +4806,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4844,10 +4835,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4873,10 +4864,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4902,10 +4893,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4931,10 +4922,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4960,10 +4951,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4989,10 +4980,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5018,10 +5009,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G117" t="n">
         <v>37</v>
@@ -5047,10 +5038,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5076,10 +5067,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>5</v>
@@ -5105,10 +5096,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5134,10 +5125,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>7</v>
@@ -5163,10 +5154,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5192,10 +5183,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>9</v>
@@ -5221,10 +5212,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5250,10 +5241,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5279,10 +5270,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5308,10 +5299,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G127" t="n">
         <v>17</v>
@@ -5337,10 +5328,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G128" t="n">
         <v>4</v>
@@ -5366,10 +5357,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5395,10 +5386,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5424,10 +5415,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5453,10 +5444,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G132" t="n">
         <v>7</v>
@@ -5482,10 +5473,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5511,10 +5502,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5540,10 +5531,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G135" t="n">
         <v>70</v>
@@ -5569,10 +5560,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G136" t="n">
         <v>7</v>
@@ -5598,10 +5589,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5627,10 +5618,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5656,10 +5647,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G139" t="n">
         <v>15</v>
@@ -5685,10 +5676,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G140" t="n">
         <v>28</v>
@@ -5714,10 +5705,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G141" t="n">
         <v>39</v>
@@ -5743,10 +5734,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5772,10 +5763,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5801,10 +5792,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G144" t="n">
         <v>15</v>
@@ -5830,10 +5821,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5859,10 +5850,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F146" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5888,10 +5879,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5917,10 +5908,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5946,10 +5937,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5975,10 +5966,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6004,10 +5995,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6033,10 +6024,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6062,10 +6053,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G153" t="n">
         <v>4</v>
@@ -6091,10 +6082,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -6120,10 +6111,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6149,10 +6140,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6178,10 +6169,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G157" t="n">
         <v>4</v>
@@ -6207,10 +6198,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6236,10 +6227,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6265,10 +6256,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G160" t="n">
         <v>22</v>
@@ -6294,10 +6285,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6323,10 +6314,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G162" t="n">
         <v>7</v>
@@ -6352,10 +6343,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G163" t="n">
         <v>33</v>
@@ -6381,10 +6372,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6410,10 +6401,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G165" t="n">
         <v>30</v>
@@ -6439,10 +6430,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6468,10 +6459,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G167" t="n">
         <v>21</v>
@@ -6497,10 +6488,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6526,10 +6517,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6555,10 +6546,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6584,10 +6575,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6613,10 +6604,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6642,10 +6633,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G173" t="n">
         <v>5</v>
@@ -6671,10 +6662,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6700,10 +6691,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6729,10 +6720,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6758,10 +6749,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -6787,10 +6778,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6816,10 +6807,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -6845,10 +6836,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6874,10 +6865,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -6903,10 +6894,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6932,10 +6923,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6961,10 +6952,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G184" t="n">
         <v>4</v>
@@ -6990,10 +6981,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G185" t="n">
         <v>8</v>
@@ -7019,10 +7010,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7048,10 +7039,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -7077,10 +7068,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7106,10 +7097,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7135,10 +7126,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7164,10 +7155,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7193,10 +7184,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G192" t="n">
         <v>9</v>
@@ -7222,10 +7213,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7251,10 +7242,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7280,10 +7271,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7309,10 +7300,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7338,10 +7329,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7367,10 +7358,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G198" t="n">
         <v>6</v>
@@ -7396,10 +7387,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G199" t="n">
         <v>5</v>
@@ -7425,10 +7416,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7454,10 +7445,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F201" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -7483,10 +7474,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F202" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -7570,10 +7561,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F205" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7599,10 +7590,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F206" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7628,10 +7619,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F207" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7657,10 +7648,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F208" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7686,10 +7677,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F209" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7715,10 +7706,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F210" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7744,10 +7735,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F211" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7773,10 +7764,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F212" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G212" t="n">
         <v>4</v>
@@ -7802,10 +7793,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F213" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G213" t="n">
         <v>8</v>
@@ -7831,10 +7822,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F214" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7860,10 +7851,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F215" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7889,10 +7880,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F216" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7918,10 +7909,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F217" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -7947,10 +7938,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F218" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
